--- a/01. PYTHON/02. LIBRARIES/PANDAS/Pandas.xlsx
+++ b/01. PYTHON/02. LIBRARIES/PANDAS/Pandas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b16b8fa2253ce71/Professional/04. PYTHON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\01. PYTHON\02. LIBRARIES\PANDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{A940381C-A5A2-43D7-A038-1782E358DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D9D45A-8511-4F9A-A5F3-85466DFEF6AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483F809-FEEF-4F05-8173-1C6A8190D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A27C32A-434C-4525-A79B-03C13A8EB250}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9A27C32A-434C-4525-A79B-03C13A8EB250}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Arrays" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -150,12 +151,18 @@
   <si>
     <t>To read a csv file using pandas and assign it to data frame</t>
   </si>
+  <si>
+    <t>525195@tcs.com</t>
+  </si>
+  <si>
+    <t>https://coderbyte.com/sl-candidate?promo=busibud-3w36d:algorithm-asses-i5i0m2qepk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +203,20 @@
       <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,8 +291,11 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FC2B5-07E3-46FF-B41D-DDA65C1DE6CA}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -737,4 +762,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915C0AF5-967A-4BC0-A7F8-8BE0C592055D}">
+  <dimension ref="H9:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{23373406-41FC-4208-80DF-1D88CB1B179D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>